--- a/assets/form_penilaian_kehadiransdm.xlsx
+++ b/assets/form_penilaian_kehadiransdm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\githubdownload\flutter_application_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C8979-1472-46D7-8786-2979C02E8CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D661F-1885-48FE-9554-46C178724154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD05E6C4-AD2B-9C40-9DEB-3E4631342333}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Header1</t>
   </si>
@@ -53,46 +53,43 @@
     <t>Pertanyaan</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokter umum atau dokter spesialis layanan primer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokter Gigi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaga Promkes dan Ilmu Perilaku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaga Sanitasi Lingkungan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrisionis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaga 
-Apoteker/Teknis 
-Kefarmasian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahli Teknologi 
-Laboratorium Medis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaga Sistem 
-Informasi 
-Kesehatan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaga 
-Ketatausahaan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekarya </t>
+    <t>Dokter umum atau dokter spesialis layanan primer</t>
+  </si>
+  <si>
+    <t>Dokter Gigi</t>
+  </si>
+  <si>
+    <t>Perawat</t>
+  </si>
+  <si>
+    <t>Bidan</t>
+  </si>
+  <si>
+    <t>Tenaga Promkes dan Ilmu Perilaku</t>
+  </si>
+  <si>
+    <t>Tenaga Sanitasi Lingkungan</t>
+  </si>
+  <si>
+    <t>Nutrisionis</t>
+  </si>
+  <si>
+    <t>Tenaga Apoteker/Teknis Kefarmasian</t>
+  </si>
+  <si>
+    <t>Ahli Teknologi Laboratorium Medis</t>
+  </si>
+  <si>
+    <t>Tenaga Sistem Informasi Kesehatan</t>
+  </si>
+  <si>
+    <t>Tenaga Admknistrasi Keuangan</t>
+  </si>
+  <si>
+    <t>Tenaga Ketatausahaan</t>
+  </si>
+  <si>
+    <t>Pekarya</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +171,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9FC4D-8050-6F44-B522-43B0D83BF861}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -625,7 +626,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
@@ -636,7 +637,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="6"/>
@@ -654,7 +655,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -664,6 +665,17 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
